--- a/MMS/Test Cases/Reports test cases.xlsx
+++ b/MMS/Test Cases/Reports test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory-Campaign-Reports" sheetId="4" r:id="rId1"/>
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
